--- a/simulation_data/iterative_algorithm/i_error_level_12_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_12_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.8788362513443</v>
+        <v>91.10909609434471</v>
       </c>
       <c r="D2" t="n">
-        <v>21.76620837312671</v>
+        <v>20.04138267074003</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.29699029860474</v>
+        <v>90.12101756179418</v>
       </c>
       <c r="D3" t="n">
-        <v>19.89730995265794</v>
+        <v>21.83681282225175</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>93.22271505400089</v>
+        <v>88.24079005328605</v>
       </c>
       <c r="D4" t="n">
-        <v>23.76793477193034</v>
+        <v>22.39907765218301</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.55447037959622</v>
+        <v>84.81367052507102</v>
       </c>
       <c r="D5" t="n">
-        <v>22.86463403410445</v>
+        <v>22.07100635142583</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.77599239682421</v>
+        <v>81.13970919137626</v>
       </c>
       <c r="D6" t="n">
-        <v>21.39415182537078</v>
+        <v>20.22606274461817</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.45589626988244</v>
+        <v>87.3628576246747</v>
       </c>
       <c r="D7" t="n">
-        <v>21.44972623771555</v>
+        <v>20.02701290440528</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.1305540331185</v>
+        <v>80.07789572669687</v>
       </c>
       <c r="D8" t="n">
-        <v>21.91014713053231</v>
+        <v>23.2289168285284</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.52496402331664</v>
+        <v>84.16506027418174</v>
       </c>
       <c r="D9" t="n">
-        <v>22.36635855381251</v>
+        <v>19.82266346848242</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.61877058532318</v>
+        <v>79.6576011729984</v>
       </c>
       <c r="D10" t="n">
-        <v>19.75559855487428</v>
+        <v>20.09098695967644</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.67405836480029</v>
+        <v>80.74895772870144</v>
       </c>
       <c r="D11" t="n">
-        <v>18.78864775609119</v>
+        <v>19.92691656200564</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.3521764414042</v>
+        <v>76.548359137662</v>
       </c>
       <c r="D12" t="n">
-        <v>21.12960355752936</v>
+        <v>21.066838963382</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.77227278093774</v>
+        <v>75.67235011579574</v>
       </c>
       <c r="D13" t="n">
-        <v>23.45326812718537</v>
+        <v>20.00964477405046</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>74.94834551867586</v>
+        <v>81.59852379194805</v>
       </c>
       <c r="D14" t="n">
-        <v>22.76895999638205</v>
+        <v>23.74769512884993</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.69203861050789</v>
+        <v>77.43375757234381</v>
       </c>
       <c r="D15" t="n">
-        <v>22.93668343928073</v>
+        <v>20.26053493577816</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.01506207394081</v>
+        <v>69.93496392102514</v>
       </c>
       <c r="D16" t="n">
-        <v>23.60992318259101</v>
+        <v>21.11126708145355</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>72.7927006963335</v>
+        <v>75.85120343493222</v>
       </c>
       <c r="D17" t="n">
-        <v>21.81056618495748</v>
+        <v>21.14076995866272</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.38661471540647</v>
+        <v>73.86457494085037</v>
       </c>
       <c r="D18" t="n">
-        <v>17.87644387988641</v>
+        <v>20.27350336033641</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>68.54320177437195</v>
+        <v>73.64347498323539</v>
       </c>
       <c r="D19" t="n">
-        <v>23.97796499864184</v>
+        <v>19.58904429830791</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.61241124560443</v>
+        <v>73.70134532211131</v>
       </c>
       <c r="D20" t="n">
-        <v>21.34245226356215</v>
+        <v>18.43173889413917</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.07215842235514</v>
+        <v>71.13364872369002</v>
       </c>
       <c r="D21" t="n">
-        <v>20.31611708123043</v>
+        <v>20.64099111280717</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.79222575899151</v>
+        <v>72.98718406350649</v>
       </c>
       <c r="D22" t="n">
-        <v>21.65734319993168</v>
+        <v>22.20526071642913</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.75422616722319</v>
+        <v>66.67436317943087</v>
       </c>
       <c r="D23" t="n">
-        <v>21.10275838999085</v>
+        <v>21.72925618525652</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.9480272490792</v>
+        <v>67.16840738278128</v>
       </c>
       <c r="D24" t="n">
-        <v>21.99700863633963</v>
+        <v>24.08743541359852</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.67842363020526</v>
+        <v>66.92160728487087</v>
       </c>
       <c r="D25" t="n">
-        <v>23.22886831653951</v>
+        <v>19.32893303721769</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.9363447968875</v>
+        <v>67.15849630325347</v>
       </c>
       <c r="D26" t="n">
-        <v>23.13848198374531</v>
+        <v>19.0229437425637</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.11765709345931</v>
+        <v>64.23146681704284</v>
       </c>
       <c r="D27" t="n">
-        <v>21.54284719402861</v>
+        <v>20.34835637931502</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.68516151775162</v>
+        <v>64.693804385421</v>
       </c>
       <c r="D28" t="n">
-        <v>18.86520974695205</v>
+        <v>21.36552256003331</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.02214023753935</v>
+        <v>62.65885324909129</v>
       </c>
       <c r="D29" t="n">
-        <v>21.22072039124843</v>
+        <v>19.21252296434343</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.5094785429209</v>
+        <v>65.0442979075697</v>
       </c>
       <c r="D30" t="n">
-        <v>21.86616048299156</v>
+        <v>20.14779720833976</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.87114648354817</v>
+        <v>58.00492250870385</v>
       </c>
       <c r="D31" t="n">
-        <v>22.14882659363408</v>
+        <v>19.64377713852843</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>55.31662237871471</v>
+        <v>59.39610228453382</v>
       </c>
       <c r="D32" t="n">
-        <v>19.55634875490239</v>
+        <v>21.23448611122485</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.25150306157945</v>
+        <v>63.78807258378954</v>
       </c>
       <c r="D33" t="n">
-        <v>21.20578255145649</v>
+        <v>19.44539962711897</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.92414835909867</v>
+        <v>55.59497433632556</v>
       </c>
       <c r="D34" t="n">
-        <v>20.69498466572285</v>
+        <v>24.51678801380142</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.70155915007955</v>
+        <v>57.09525636950782</v>
       </c>
       <c r="D35" t="n">
-        <v>19.00536319202922</v>
+        <v>22.50423475992884</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.26140422613847</v>
+        <v>57.06813772151571</v>
       </c>
       <c r="D36" t="n">
-        <v>21.4356328699824</v>
+        <v>19.32466322997136</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.44301247154053</v>
+        <v>54.24868256713052</v>
       </c>
       <c r="D37" t="n">
-        <v>22.55466112746911</v>
+        <v>19.91673845892909</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.9756289577895</v>
+        <v>50.29459123077511</v>
       </c>
       <c r="D38" t="n">
-        <v>22.08357603437901</v>
+        <v>23.5855431680454</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.62515802290741</v>
+        <v>52.97823193551581</v>
       </c>
       <c r="D39" t="n">
-        <v>25.43478988050608</v>
+        <v>21.87386086147308</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.88821103863492</v>
+        <v>56.1381094812083</v>
       </c>
       <c r="D40" t="n">
-        <v>25.79827252442619</v>
+        <v>19.90337791953007</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>47.12878040062937</v>
+        <v>53.54299705137441</v>
       </c>
       <c r="D41" t="n">
-        <v>22.95624191568753</v>
+        <v>18.72990355272737</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.1572858370685</v>
+        <v>49.22107952977046</v>
       </c>
       <c r="D42" t="n">
-        <v>20.15606708372703</v>
+        <v>21.99977758861671</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.69917829522989</v>
+        <v>50.53062024272318</v>
       </c>
       <c r="D43" t="n">
-        <v>22.49584689083664</v>
+        <v>22.9660644486673</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>50.02852232368355</v>
+        <v>47.97125693851609</v>
       </c>
       <c r="D44" t="n">
-        <v>21.87346197607902</v>
+        <v>21.80373476587919</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>44.67075303969632</v>
+        <v>48.97997116762102</v>
       </c>
       <c r="D45" t="n">
-        <v>19.93068030384157</v>
+        <v>21.5383490578885</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.64457065246447</v>
+        <v>44.73659904179209</v>
       </c>
       <c r="D46" t="n">
-        <v>22.5854925344202</v>
+        <v>25.20734071380508</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.61686253934388</v>
+        <v>43.44733152317635</v>
       </c>
       <c r="D47" t="n">
-        <v>20.11174758819136</v>
+        <v>22.75985545634342</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.80506759053443</v>
+        <v>42.50973806319409</v>
       </c>
       <c r="D48" t="n">
-        <v>20.32874494535425</v>
+        <v>21.81233151788904</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>47.45489908583367</v>
+        <v>44.88020653594634</v>
       </c>
       <c r="D49" t="n">
-        <v>21.47075160077433</v>
+        <v>23.21653547777914</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.63320272798315</v>
+        <v>42.76214206268483</v>
       </c>
       <c r="D50" t="n">
-        <v>22.80427777144794</v>
+        <v>20.44778928322519</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.64389087769974</v>
+        <v>35.88283977715448</v>
       </c>
       <c r="D51" t="n">
-        <v>21.45162767368237</v>
+        <v>25.20064953889788</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.04545087204083</v>
+        <v>38.40374381831138</v>
       </c>
       <c r="D52" t="n">
-        <v>23.04606288059064</v>
+        <v>21.35249608257108</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.33897104407826</v>
+        <v>35.72471335932636</v>
       </c>
       <c r="D53" t="n">
-        <v>23.03358416256705</v>
+        <v>22.09263000999524</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>42.03520748948534</v>
+        <v>38.52379338000956</v>
       </c>
       <c r="D54" t="n">
-        <v>21.61995407053847</v>
+        <v>19.31645022010086</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.07925305776347</v>
+        <v>35.18116010157076</v>
       </c>
       <c r="D55" t="n">
-        <v>21.72063703737783</v>
+        <v>23.23041153759394</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.72498293351423</v>
+        <v>36.27597746348531</v>
       </c>
       <c r="D56" t="n">
-        <v>21.90399908628881</v>
+        <v>20.63600854963151</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.64454347615709</v>
+        <v>29.63621437913637</v>
       </c>
       <c r="D57" t="n">
-        <v>20.91989572843938</v>
+        <v>22.43426794773655</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.0813347469248</v>
+        <v>38.64187590849183</v>
       </c>
       <c r="D58" t="n">
-        <v>23.14009587112323</v>
+        <v>21.64069866626872</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.45291581532384</v>
+        <v>36.8946738684866</v>
       </c>
       <c r="D59" t="n">
-        <v>19.7639739741937</v>
+        <v>20.96043786544927</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.53539130391096</v>
+        <v>32.24251557557694</v>
       </c>
       <c r="D60" t="n">
-        <v>20.70688763274889</v>
+        <v>19.28549854114</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.94876105026412</v>
+        <v>32.37800953914866</v>
       </c>
       <c r="D61" t="n">
-        <v>19.97863515731538</v>
+        <v>19.75970520353243</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.65940514589363</v>
+        <v>28.36576303338957</v>
       </c>
       <c r="D62" t="n">
-        <v>24.28688927274232</v>
+        <v>25.4086804999867</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.09369766894994</v>
+        <v>24.39578517817562</v>
       </c>
       <c r="D63" t="n">
-        <v>21.1482114843458</v>
+        <v>20.38178523996476</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>25.79780974762738</v>
+        <v>24.03209109043442</v>
       </c>
       <c r="D64" t="n">
-        <v>22.62459602415921</v>
+        <v>19.67923529042912</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.45475843755523</v>
+        <v>29.97506356775798</v>
       </c>
       <c r="D65" t="n">
-        <v>21.70024996867086</v>
+        <v>23.45565564254243</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.86472351833621</v>
+        <v>24.2878490618475</v>
       </c>
       <c r="D66" t="n">
-        <v>23.32750463934892</v>
+        <v>24.53998292813602</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.31015280446179</v>
+        <v>23.11821066350347</v>
       </c>
       <c r="D67" t="n">
-        <v>21.82947052407472</v>
+        <v>24.00037148231532</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.27951238714241</v>
+        <v>23.39958083379744</v>
       </c>
       <c r="D68" t="n">
-        <v>23.22606464970176</v>
+        <v>21.7504709052609</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.5972040509448</v>
+        <v>23.91493154230346</v>
       </c>
       <c r="D69" t="n">
-        <v>20.53482252098829</v>
+        <v>22.47543851404364</v>
       </c>
     </row>
   </sheetData>
